--- a/DigiElech/2023-05-30 RC and Diffusion/table for keeping track.xlsx
+++ b/DigiElech/2023-05-30 RC and Diffusion/table for keeping track.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.monash.edu\home\User057\ezra0001\Documents\Data\Simulations\DigiElch\2023-05-30 RC and Diffusion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.monash.edu\home\User057\ezra0001\Documents\GitHub\N2toAmmonia\DigiElech\2023-05-30 RC and Diffusion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230F0F46-5F85-417D-9F61-843D2BD3E515}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26369759-D6F8-4732-8946-0C997C708EF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10500" xr2:uid="{EB840FE2-280F-4CEF-B1F4-76BDA1E7A1B9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="55">
   <si>
     <t>k0</t>
   </si>
@@ -166,6 +166,30 @@
   </si>
   <si>
     <t>CV_k0_1e6_kf_1e4_kb_1e4_R_135_Cd_5.4e-7_Ds_2e-5_Dp_1e-7</t>
+  </si>
+  <si>
+    <t>Added 5 Jun - No catalysis</t>
+  </si>
+  <si>
+    <t>Added 5 Jun - Constant catalysis</t>
+  </si>
+  <si>
+    <t>CV_k0_1e6_kf_1e4_kb_1001.2_R_3e5_Cd_5.4e-7_Ds_10_Dp_10</t>
+  </si>
+  <si>
+    <t>CV_k0_1e6_kf_0_kb_0_R_3e5_Cd_5.4e-7_Ds_0_Dp_0</t>
+  </si>
+  <si>
+    <t>CV_k0_1e6_kf_0_kb_0_R_3e6_Cd_5.4e-7_Ds_0_Dp_0</t>
+  </si>
+  <si>
+    <t>CV_k0_1e6_kf_0_kb_0_R_3e7_Cd_5.4e-7_Ds_0_Dp_0</t>
+  </si>
+  <si>
+    <t>CV_k0_1e6_kf_1e4_kb_1001.2_R_3e6_Cd_5.4e-7_Ds_10_Dp_10</t>
+  </si>
+  <si>
+    <t>CV_k0_1e6_kf_1e4_kb_1001.2_R_3e7_Cd_5.4e-7_Ds_10_Dp_10</t>
   </si>
 </sst>
 </file>
@@ -249,27 +273,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -279,8 +291,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -598,38 +626,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2646097-D1D2-40D0-B607-C7B849A87EA7}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="12"/>
-    <col min="11" max="12" width="8.88671875" style="15"/>
-    <col min="13" max="13" width="8.88671875" style="18"/>
+    <col min="10" max="10" width="8.88671875" style="8"/>
+    <col min="11" max="12" width="8.88671875" style="11"/>
+    <col min="13" max="13" width="8.88671875" style="14"/>
     <col min="14" max="14" width="10.5546875" customWidth="1"/>
     <col min="15" max="15" width="55.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="8" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -648,22 +676,22 @@
       <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -674,19 +702,19 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
         <v>0</v>
       </c>
       <c r="F3">
@@ -695,25 +723,25 @@
       <c r="G3" s="1">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="12">
-        <v>298</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="17">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="N3" s="7" t="s">
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="8">
+        <v>298</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="O3" t="s">
@@ -721,15 +749,15 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4">
         <v>100</v>
       </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
         <v>0</v>
       </c>
       <c r="F4">
@@ -738,25 +766,25 @@
       <c r="G4" s="1">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="12">
-        <v>298</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="17">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="N4" s="7" t="s">
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="8">
+        <v>298</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="O4" t="s">
@@ -764,15 +792,15 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5">
         <v>1000</v>
       </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="F5">
@@ -781,25 +809,25 @@
       <c r="G5" s="1">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="12">
-        <v>298</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="17">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="N5" s="7" t="s">
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="8">
+        <v>298</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="O5" t="s">
@@ -807,15 +835,15 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="1">
         <v>10000</v>
       </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
         <v>0</v>
       </c>
       <c r="F6">
@@ -824,25 +852,25 @@
       <c r="G6" s="1">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="12">
-        <v>298</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="17">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="N6" s="7" t="s">
+      <c r="H6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="8">
+        <v>298</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="O6" t="s">
@@ -850,15 +878,15 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
         <v>0</v>
       </c>
       <c r="F7">
@@ -867,25 +895,25 @@
       <c r="G7" s="1">
         <v>5.3999999999999998E-5</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="12">
-        <v>298</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="17">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="N7" s="7" t="s">
+      <c r="H7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="8">
+        <v>298</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="O7" t="s">
@@ -893,15 +921,15 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8">
         <v>1000</v>
       </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
         <v>0</v>
       </c>
       <c r="F8">
@@ -910,25 +938,25 @@
       <c r="G8" s="1">
         <v>5.4000000000000002E-7</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="12">
-        <v>298</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="17">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="N8" s="7" t="s">
+      <c r="H8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="8">
+        <v>298</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>24</v>
       </c>
       <c r="O8" t="s">
@@ -936,15 +964,15 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="1">
         <v>1000000</v>
       </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
         <v>0</v>
       </c>
       <c r="F9">
@@ -953,25 +981,25 @@
       <c r="G9" s="1">
         <v>5.3999999999999998E-5</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="12">
-        <v>298</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="17">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="N9" s="7" t="s">
+      <c r="H9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="8">
+        <v>298</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="O9" t="s">
@@ -979,8 +1007,8 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C10">
@@ -998,25 +1026,25 @@
       <c r="G10" s="1">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="H10" s="6">
-        <v>10</v>
-      </c>
-      <c r="I10" s="6">
-        <v>10</v>
-      </c>
-      <c r="J10" s="12">
-        <v>298</v>
-      </c>
-      <c r="K10" s="14">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="L10" s="15">
-        <v>0</v>
-      </c>
-      <c r="M10" s="17">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="N10" s="7" t="s">
+      <c r="H10" s="4">
+        <v>10</v>
+      </c>
+      <c r="I10" s="4">
+        <v>10</v>
+      </c>
+      <c r="J10" s="8">
+        <v>298</v>
+      </c>
+      <c r="K10" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0</v>
+      </c>
+      <c r="M10" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="O10" t="s">
@@ -1024,8 +1052,8 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="1">
         <v>10000</v>
       </c>
@@ -1041,25 +1069,25 @@
       <c r="G11" s="1">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="H11" s="6">
-        <v>10</v>
-      </c>
-      <c r="I11" s="6">
-        <v>10</v>
-      </c>
-      <c r="J11" s="12">
-        <v>298</v>
-      </c>
-      <c r="K11" s="14">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="L11" s="15">
-        <v>0</v>
-      </c>
-      <c r="M11" s="17">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="N11" s="7" t="s">
+      <c r="H11" s="4">
+        <v>10</v>
+      </c>
+      <c r="I11" s="4">
+        <v>10</v>
+      </c>
+      <c r="J11" s="8">
+        <v>298</v>
+      </c>
+      <c r="K11" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="O11" t="s">
@@ -1067,8 +1095,8 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="1">
         <v>1000000</v>
       </c>
@@ -1084,311 +1112,349 @@
       <c r="G12" s="1">
         <v>5.4000000000000002E-7</v>
       </c>
-      <c r="H12" s="6">
-        <v>10</v>
-      </c>
-      <c r="I12" s="6">
-        <v>10</v>
-      </c>
-      <c r="J12" s="12">
-        <v>298</v>
-      </c>
-      <c r="K12" s="14">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="L12" s="15">
-        <v>0</v>
-      </c>
-      <c r="M12" s="17">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="N12" s="7" t="s">
+      <c r="H12" s="4">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4">
+        <v>10</v>
+      </c>
+      <c r="J12" s="8">
+        <v>298</v>
+      </c>
+      <c r="K12" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0</v>
+      </c>
+      <c r="M12" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="O12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="M13" s="17"/>
+    <row r="13" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>300000</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5.4000000000000002E-7</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="8">
+        <v>298</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="M14" s="17"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5.4000000000000002E-7</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="8">
+        <v>298</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
+      <c r="A15" s="3"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>30000000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5.4000000000000002E-7</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="8">
+        <v>298</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10000</v>
       </c>
       <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="J16" s="12">
-        <v>298</v>
-      </c>
-      <c r="K16" s="14">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="L16" s="15">
-        <v>0</v>
-      </c>
-      <c r="M16" s="17">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="N16" s="7" t="s">
+        <v>1001.2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>300000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5.4000000000000002E-7</v>
+      </c>
+      <c r="H16" s="4">
+        <v>10</v>
+      </c>
+      <c r="I16" s="4">
+        <v>10</v>
+      </c>
+      <c r="J16" s="8">
+        <v>298</v>
+      </c>
+      <c r="K16" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L16" s="20">
+        <v>0</v>
+      </c>
+      <c r="M16" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="O16" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17">
-        <v>100</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
+      <c r="A17" s="3"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>10000</v>
       </c>
       <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="J17" s="12">
-        <v>298</v>
-      </c>
-      <c r="K17" s="14">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="L17" s="15">
-        <v>0</v>
-      </c>
-      <c r="M17" s="17">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="N17" s="7" t="s">
+        <v>1001.2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5.4000000000000002E-7</v>
+      </c>
+      <c r="H17" s="4">
+        <v>10</v>
+      </c>
+      <c r="I17" s="4">
+        <v>10</v>
+      </c>
+      <c r="J17" s="8">
+        <v>298</v>
+      </c>
+      <c r="K17" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L17" s="20">
+        <v>0</v>
+      </c>
+      <c r="M17" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="O17" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="1">
         <v>1000000</v>
       </c>
       <c r="D18" s="1">
         <v>10000</v>
       </c>
-      <c r="E18" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="J18" s="12">
-        <v>298</v>
-      </c>
-      <c r="K18" s="14">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="L18" s="15">
-        <v>0</v>
-      </c>
-      <c r="M18" s="17">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="N18" s="7" t="s">
+      <c r="E18">
+        <v>1001.2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>30000000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5.4000000000000002E-7</v>
+      </c>
+      <c r="H18" s="4">
+        <v>10</v>
+      </c>
+      <c r="I18" s="4">
+        <v>10</v>
+      </c>
+      <c r="J18" s="8">
+        <v>298</v>
+      </c>
+      <c r="K18" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L18" s="20">
+        <v>0</v>
+      </c>
+      <c r="M18" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="O18" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="D19" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E19" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="I19" s="1">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="J19" s="12">
-        <v>298</v>
-      </c>
-      <c r="K19" s="14">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="L19" s="15">
-        <v>0</v>
-      </c>
-      <c r="M19" s="17">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O19" t="s">
-        <v>37</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="M19" s="13"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="D20" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="I20" s="1">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="J20" s="12">
-        <v>298</v>
-      </c>
-      <c r="K20" s="14">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="L20" s="15">
-        <v>0</v>
-      </c>
-      <c r="M20" s="17">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O20" t="s">
-        <v>38</v>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
-        <v>19</v>
+      <c r="A21" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -1399,40 +1465,40 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>2.0000000000000002E-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I21" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J21" s="12">
-        <v>298</v>
-      </c>
-      <c r="K21" s="14">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="L21" s="15">
-        <v>0</v>
-      </c>
-      <c r="M21" s="17">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="N21" s="7" t="s">
+      <c r="J21" s="8">
+        <v>298</v>
+      </c>
+      <c r="K21" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N21" s="5" t="s">
         <v>24</v>
       </c>
       <c r="O21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
       <c r="C22">
         <v>100</v>
       </c>
@@ -1442,40 +1508,40 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>2.0000000000000002E-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I22" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J22" s="12">
-        <v>298</v>
-      </c>
-      <c r="K22" s="14">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="L22" s="15">
-        <v>0</v>
-      </c>
-      <c r="M22" s="17">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="N22" s="7" t="s">
+      <c r="J22" s="8">
+        <v>298</v>
+      </c>
+      <c r="K22" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L22" s="11">
+        <v>0</v>
+      </c>
+      <c r="M22" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N22" s="5" t="s">
         <v>24</v>
       </c>
       <c r="O22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="1">
         <v>1000000</v>
       </c>
@@ -1485,40 +1551,40 @@
       <c r="E23" s="1">
         <v>10000</v>
       </c>
-      <c r="F23" s="6">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6">
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>2.0000000000000002E-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I23" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J23" s="12">
-        <v>298</v>
-      </c>
-      <c r="K23" s="14">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="L23" s="15">
-        <v>0</v>
-      </c>
-      <c r="M23" s="17">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="N23" s="7" t="s">
+      <c r="J23" s="8">
+        <v>298</v>
+      </c>
+      <c r="K23" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N23" s="5" t="s">
         <v>24</v>
       </c>
       <c r="O23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="1">
         <v>1000000</v>
       </c>
@@ -1528,276 +1594,495 @@
       <c r="E24" s="1">
         <v>10000</v>
       </c>
-      <c r="F24" s="6">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6">
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
         <v>0</v>
       </c>
       <c r="H24" s="1">
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="I24" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="J24" s="8">
+        <v>298</v>
+      </c>
+      <c r="K24" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0</v>
+      </c>
+      <c r="M24" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D25" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E25" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="J24" s="12">
-        <v>298</v>
-      </c>
-      <c r="K24" s="14">
+      <c r="I25" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="J25" s="8">
+        <v>298</v>
+      </c>
+      <c r="K25" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="I26" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="L24" s="15">
-        <v>0</v>
-      </c>
-      <c r="M24" s="17">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="5"/>
-      <c r="C25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="M25" s="17"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="M26" s="17"/>
+      <c r="J26" s="8">
+        <v>298</v>
+      </c>
+      <c r="K26" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L26" s="11">
+        <v>0</v>
+      </c>
+      <c r="M26" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="L27" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>21</v>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J27" s="8">
+        <v>298</v>
+      </c>
+      <c r="K27" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1.0000000000000001E-9</v>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D28" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E28" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="I28" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J28" s="12">
-        <v>298</v>
-      </c>
-      <c r="K28" s="14">
+      <c r="J28" s="8">
+        <v>298</v>
+      </c>
+      <c r="K28" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0</v>
+      </c>
+      <c r="M28" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="I29" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="J29" s="8">
+        <v>298</v>
+      </c>
+      <c r="K29" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="M30" s="13"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="M31" s="13"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="H33" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="L28" s="15">
-        <v>0</v>
-      </c>
-      <c r="M28" s="17">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="I33" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J33" s="8">
+        <v>298</v>
+      </c>
+      <c r="K33" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L33" s="11">
+        <v>0</v>
+      </c>
+      <c r="M33" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O33" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="1">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="1">
         <v>10000</v>
       </c>
-      <c r="D29">
+      <c r="D34">
         <v>1000</v>
       </c>
-      <c r="E29">
+      <c r="E34">
         <v>1000</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H34" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I34" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J29" s="12">
-        <v>298</v>
-      </c>
-      <c r="K29" s="14">
+      <c r="J34" s="8">
+        <v>298</v>
+      </c>
+      <c r="K34" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D35">
+        <v>1000</v>
+      </c>
+      <c r="E35">
+        <v>1000</v>
+      </c>
+      <c r="F35">
+        <v>135</v>
+      </c>
+      <c r="G35" s="1">
+        <v>5.4000000000000002E-7</v>
+      </c>
+      <c r="H35" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="L29" s="15">
-        <v>0</v>
-      </c>
-      <c r="M29" s="17">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="1">
+      <c r="I35" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J35" s="8">
+        <v>298</v>
+      </c>
+      <c r="K35" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0</v>
+      </c>
+      <c r="M35" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D36" s="1">
         <v>10000</v>
       </c>
-      <c r="D30">
-        <v>1000</v>
-      </c>
-      <c r="E30">
-        <v>1000</v>
-      </c>
-      <c r="F30">
+      <c r="E36" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F36">
         <v>135</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G36" s="1">
         <v>5.4000000000000002E-7</v>
       </c>
-      <c r="H30" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="I30" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="J30" s="12">
-        <v>298</v>
-      </c>
-      <c r="K30" s="14">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="L30" s="15">
-        <v>0</v>
-      </c>
-      <c r="M30" s="17">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="D31" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E31" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F31">
-        <v>135</v>
-      </c>
-      <c r="G31" s="1">
-        <v>5.4000000000000002E-7</v>
-      </c>
-      <c r="H31" s="1">
+      <c r="H36" s="1">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I36" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="J31" s="12">
-        <v>298</v>
-      </c>
-      <c r="K31" s="14">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="L31" s="15">
-        <v>0</v>
-      </c>
-      <c r="M31" s="17">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="J36" s="8">
+        <v>298</v>
+      </c>
+      <c r="K36" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="13">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O36" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A28:B31"/>
-    <mergeCell ref="C1:I1"/>
+  <mergeCells count="11">
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="A3:A12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A33:B36"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="B16:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
